--- a/訓練資料集(包包).xlsx
+++ b/訓練資料集(包包).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiwei/Desktop/91APP_Image_Coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BCAFC3-FEEA-6F48-9984-C7FF607B29A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD1225B-F757-724E-A279-EF7ECCD449EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="647">
   <si>
     <t>URL</t>
   </si>
@@ -2085,12 +2085,96 @@
   <si>
     <t>https://tpimage.91app.com/adidas/IM1140_OK/1-Main/All/IM1140_06.jpg</t>
   </si>
+  <si>
+    <t>情境平拍正面</t>
+  </si>
+  <si>
+    <t>情境平拍背面</t>
+  </si>
+  <si>
+    <t>男女模特正面</t>
+  </si>
+  <si>
+    <t>男女模特背面</t>
+  </si>
+  <si>
+    <t>模特內層</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>夜光正面</t>
+  </si>
+  <si>
+    <t>雙面外套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Fin_Model_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Fin_Torso</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三合一外套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>情境模特正面</t>
+  </si>
+  <si>
+    <t>情境模特側面</t>
+  </si>
+  <si>
+    <t>情境模特背面</t>
+  </si>
+  <si>
+    <t>套裝上身正面</t>
+  </si>
+  <si>
+    <t>套裝上身背面</t>
+  </si>
+  <si>
+    <t>套裝下身正面</t>
+  </si>
+  <si>
+    <t>套裝下身背面</t>
+  </si>
+  <si>
+    <t>套裝上身特寫</t>
+  </si>
+  <si>
+    <t>套裝下身特寫</t>
+  </si>
+  <si>
+    <t>套裝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Ftp_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Btp_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Fbp_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Bbp_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2236,8 +2320,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2274,6 +2365,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CCDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2FFE9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9F290"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2288,7 +2403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2333,6 +2448,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2340,6 +2460,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE9F290"/>
+      <color rgb="FFB2FFE9"/>
+      <color rgb="FFF8CCDE"/>
+      <color rgb="FFFF98CD"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2554,7 +2682,7 @@
   </sheetPr>
   <dimension ref="A1:E1659"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
@@ -20756,10 +20884,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F8C8A2-9E36-4713-9962-51737FEB24B2}">
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="135" workbookViewId="0">
-      <selection activeCell="I108" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="135" workbookViewId="0">
+      <selection activeCell="C205" sqref="C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -22256,7 +22384,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="16">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B113" s="4" t="s">
@@ -22267,7 +22395,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="16">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B114" s="4" t="s">
@@ -22278,7 +22406,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="16">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B115" s="4" t="s">
@@ -22289,7 +22417,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="16">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B116" s="4" t="s">
@@ -22300,7 +22428,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="16">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B117" s="4" t="s">
@@ -22311,7 +22439,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="16">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B118" s="4" t="s">
@@ -22322,7 +22450,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="16">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B119" s="4" t="s">
@@ -22333,7 +22461,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="16">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B120" s="4" t="s">
@@ -22344,7 +22472,7 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="16">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B121" s="4" t="s">
@@ -22358,7 +22486,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" ht="16">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B122" s="4" t="s">
@@ -22372,7 +22500,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" ht="16">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B123" s="4" t="s">
@@ -22386,7 +22514,7 @@
       </c>
     </row>
     <row r="124" spans="1:5" ht="16">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B124" s="4" t="s">
@@ -22400,7 +22528,7 @@
       </c>
     </row>
     <row r="125" spans="1:5" ht="16">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B125" s="4" t="s">
@@ -22414,7 +22542,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="16">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B126" s="4" t="s">
@@ -22428,7 +22556,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="16">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B127" s="4" t="s">
@@ -22442,7 +22570,7 @@
       </c>
     </row>
     <row r="128" spans="1:5" ht="16">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -22458,8 +22586,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="16">
-      <c r="A129" s="2" t="s">
+    <row r="129" spans="1:5" ht="16">
+      <c r="A129" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -22475,8 +22603,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="16">
-      <c r="A130" s="2" t="s">
+    <row r="130" spans="1:5" ht="16">
+      <c r="A130" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -22492,8 +22620,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="16">
-      <c r="A131" s="2" t="s">
+    <row r="131" spans="1:5" ht="16">
+      <c r="A131" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B131" s="4" t="s">
@@ -22502,23 +22630,945 @@
       <c r="C131">
         <v>19</v>
       </c>
-      <c r="D131" t="s">
+    </row>
+    <row r="132" spans="1:5" ht="16">
+      <c r="A132" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C132">
+        <v>20</v>
+      </c>
+      <c r="D132" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="16">
+      <c r="A133" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C133">
+        <v>21</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="16">
+      <c r="A134" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="16">
+      <c r="A135" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="16">
+      <c r="A136" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="16">
+      <c r="A137" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="16">
+      <c r="A138" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="16">
+      <c r="A139" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C139">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="16">
+      <c r="A140" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C140">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="16">
+      <c r="A141" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C141">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="16">
+      <c r="A142" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="16">
+      <c r="A143" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C143">
+        <v>10</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="16">
+      <c r="A144" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C144">
+        <v>11</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="16">
+      <c r="A145" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C145">
+        <v>12</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="16">
+      <c r="A146" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C146">
+        <v>13</v>
+      </c>
+      <c r="D146" s="27" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="16">
+      <c r="A147" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C147">
+        <v>14</v>
+      </c>
+      <c r="D147" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="16">
+      <c r="A148" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C148">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="16">
+      <c r="A149" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C149">
+        <v>16</v>
+      </c>
+      <c r="D149" s="27" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="16">
+      <c r="A150" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C150">
+        <v>17</v>
+      </c>
+      <c r="D150" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="16">
+      <c r="A151" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C151">
+        <v>18</v>
+      </c>
+      <c r="D151" t="s">
         <v>63</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E151" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="16">
+      <c r="A152" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C152">
+        <v>19</v>
+      </c>
+      <c r="D152" t="s">
         <v>64</v>
       </c>
-      <c r="F131" t="s">
+      <c r="E152" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="16">
+      <c r="A153" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C153">
+        <v>20</v>
+      </c>
+      <c r="D153" t="s">
         <v>65</v>
       </c>
-      <c r="G131" t="s">
+      <c r="E153" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="16">
+      <c r="A154" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="16">
+      <c r="A155" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C155">
+        <v>22</v>
+      </c>
+      <c r="D155" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="16">
+      <c r="A156" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C156">
+        <v>23</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="16">
+      <c r="A157" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="16">
+      <c r="A158" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="16">
+      <c r="A159" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="16">
+      <c r="A160" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="16">
+      <c r="A161" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="16">
+      <c r="A162" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C162">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="16">
+      <c r="A163" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C163">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="16">
+      <c r="A164" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C164">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="16">
+      <c r="A165" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="16">
+      <c r="A166" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C166">
+        <v>10</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="16">
+      <c r="A167" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C167">
+        <v>11</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="16">
+      <c r="A168" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C168">
+        <v>12</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="16">
+      <c r="A169" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C169">
+        <v>13</v>
+      </c>
+      <c r="D169" s="27" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="16">
+      <c r="A170" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C170">
+        <v>14</v>
+      </c>
+      <c r="D170" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="16">
+      <c r="A171" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C171">
+        <v>15</v>
+      </c>
+      <c r="D171" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="16">
+      <c r="A172" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C172">
+        <v>16</v>
+      </c>
+      <c r="D172" s="27" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="16">
+      <c r="A173" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C173">
+        <v>17</v>
+      </c>
+      <c r="D173" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="16">
+      <c r="A174" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C174">
+        <v>18</v>
+      </c>
+      <c r="D174" t="s">
+        <v>63</v>
+      </c>
+      <c r="E174" t="s">
         <v>66</v>
       </c>
-      <c r="H131" t="s">
+    </row>
+    <row r="175" spans="1:5" ht="16">
+      <c r="A175" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C175">
+        <v>19</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" t="s">
         <v>67</v>
       </c>
-      <c r="I131" t="s">
+    </row>
+    <row r="176" spans="1:5" ht="16">
+      <c r="A176" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C176">
+        <v>20</v>
+      </c>
+      <c r="D176" t="s">
+        <v>65</v>
+      </c>
+      <c r="E176" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="16">
+      <c r="A177" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C177">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="16">
+      <c r="A178" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C178">
+        <v>22</v>
+      </c>
+      <c r="D178" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="16">
+      <c r="A179" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C179">
+        <v>23</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="16">
+      <c r="A180" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="16">
+      <c r="A181" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="16">
+      <c r="A182" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="16">
+      <c r="A183" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="16">
+      <c r="A184" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C184">
+        <v>5</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="16">
+      <c r="A185" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C185">
+        <v>6</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="16">
+      <c r="A186" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C186">
+        <v>7</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="16">
+      <c r="A187" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C187">
+        <v>8</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="16">
+      <c r="A188" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C188">
+        <v>9</v>
+      </c>
+      <c r="D188" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="16">
+      <c r="A189" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C189">
+        <v>10</v>
+      </c>
+      <c r="D189" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="16">
+      <c r="A190" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C190">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="16">
+      <c r="A191" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C191">
+        <v>12</v>
+      </c>
+      <c r="D191" s="27" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="16">
+      <c r="A192" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C192">
+        <v>13</v>
+      </c>
+      <c r="D192" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="16">
+      <c r="A193" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C193">
+        <v>14</v>
+      </c>
+      <c r="D193" s="27" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="16">
+      <c r="A194" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C194">
+        <v>15</v>
+      </c>
+      <c r="D194" s="27" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="16">
+      <c r="A195" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C195">
+        <v>16</v>
+      </c>
+      <c r="D195" t="s">
+        <v>63</v>
+      </c>
+      <c r="E195" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="16">
+      <c r="A196" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C196">
+        <v>17</v>
+      </c>
+      <c r="D196" t="s">
+        <v>64</v>
+      </c>
+      <c r="E196" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="16">
+      <c r="A197" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C197">
+        <v>18</v>
+      </c>
+      <c r="D197" t="s">
+        <v>65</v>
+      </c>
+      <c r="E197" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="16">
+      <c r="A198" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C198">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="16">
+      <c r="A199" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C199">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="16">
+      <c r="A200" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C200">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="16">
+      <c r="A201" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B201" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C201">
+        <v>22</v>
+      </c>
+      <c r="D201" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="16">
+      <c r="A202" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B202" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C202">
+        <v>23</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
